--- a/recom.xlsx
+++ b/recom.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paulamoyanieto/Documents/ESADE/Term 2/DDT_AI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EAD63EF-9C6D-8141-AAB1-7E077F242C72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62A0ADEC-D986-5E44-96B8-5FB0FECC04AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="77">
   <si>
     <t>transit_bool</t>
   </si>
@@ -121,9 +121,6 @@
     <t>require_guest_phone_verification</t>
   </si>
   <si>
-    <t>price_per_person</t>
-  </si>
-  <si>
     <t>You should write a transit description</t>
   </si>
   <si>
@@ -206,9 +203,6 @@
   </si>
   <si>
     <t>You should require a guest phone verification</t>
-  </si>
-  <si>
-    <t>You should change your price! You can use our price optimization page for more info!</t>
   </si>
   <si>
     <t>You should not write a transit description</t>
@@ -608,8 +602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="U8" sqref="U8"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
+      <selection activeCell="AH5" sqref="AH5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -747,211 +741,205 @@
       <c r="AG1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="AH1" s="1"/>
     </row>
     <row r="2" spans="1:34" ht="52" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
         <v>34</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>35</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>36</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>37</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" t="s">
         <v>38</v>
       </c>
-      <c r="F2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" t="s">
-        <v>39</v>
-      </c>
       <c r="H2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" t="s">
         <v>40</v>
       </c>
-      <c r="I2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>41</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>42</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>43</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>44</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>45</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>46</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>47</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>48</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>49</v>
       </c>
-      <c r="S2" t="s">
+      <c r="U2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AD2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF2" s="1" t="s">
+      <c r="AG2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AG2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>62</v>
-      </c>
+      <c r="AH2" s="1"/>
     </row>
     <row r="3" spans="1:34" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" t="s">
         <v>63</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>64</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" t="s">
         <v>65</v>
       </c>
-      <c r="D3" t="s">
+      <c r="J3" t="s">
         <v>66</v>
       </c>
-      <c r="E3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>67</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>68</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" t="s">
         <v>69</v>
       </c>
-      <c r="L3" t="s">
+      <c r="P3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R3" t="s">
+        <v>39</v>
+      </c>
+      <c r="S3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="X3" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="M3" t="s">
-        <v>40</v>
-      </c>
-      <c r="N3" t="s">
-        <v>40</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="Y3" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="P3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>40</v>
-      </c>
-      <c r="R3" t="s">
-        <v>40</v>
-      </c>
-      <c r="S3" t="s">
-        <v>40</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="X3" s="1" t="s">
+      <c r="Z3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="Y3" s="1" t="s">
+      <c r="AA3" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="Z3" s="1" t="s">
+      <c r="AB3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC3" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="AA3" s="1" t="s">
+      <c r="AD3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF3" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="AB3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC3" s="1" t="s">
+      <c r="AG3" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="AD3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="AH3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
